--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\PP\HERRAMIENTAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AEBE06-CF4D-4F1D-BDEB-3FA23CFE6BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A3DFD4-2BD6-4E8E-A3BB-885A8569A40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{F1880187-9CED-4003-8112-992CEAE03A38}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F1880187-9CED-4003-8112-992CEAE03A38}"/>
   </bookViews>
   <sheets>
     <sheet name="REUNIONES JAC-INSTANCIAS" sheetId="1" r:id="rId1"/>
@@ -1226,12 +1226,6 @@
     <t xml:space="preserve">REUNION RECTORES COLEGIOS PRIVADOS </t>
   </si>
   <si>
-    <t xml:space="preserve">16 DE JULIO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 DE JULIO </t>
-  </si>
-  <si>
     <t>ALEXANDRA BUENO 3209251078</t>
   </si>
   <si>
@@ -1273,6 +1267,16 @@
   </si>
   <si>
     <t>2374 - Engativá Activa</t>
+  </si>
+  <si>
+    <t>MIERCOLES 16/07/2025
+HORA: 7:00 AM
+UBICACIÓN: COLEGIO LAUREANO GOMEZ</t>
+  </si>
+  <si>
+    <t>JUEVES 17/07/2025
+HORA: 8:00 AM
+UBICACIÓN: COLEGIO MARGARITA BOSCO</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1499,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1651,31 +1655,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1703,6 +1682,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2042,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5529557-0EC5-4067-9669-ABA8665B3802}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2199,10 +2202,10 @@
         <v>383</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="E11" s="47"/>
     </row>
@@ -2214,10 +2217,10 @@
         <v>383</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="E12" s="47"/>
     </row>
@@ -2602,7 +2605,7 @@
         <v>127</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2908,10 +2911,10 @@
       <c r="C2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="65" t="s">
         <v>167</v>
       </c>
       <c r="F2" s="4">
@@ -2967,10 +2970,10 @@
       <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="65" t="s">
         <v>167</v>
       </c>
       <c r="F3" s="4">
@@ -3247,7 +3250,7 @@
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="66" t="s">
         <v>214</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -3304,7 +3307,7 @@
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="66" t="s">
         <v>214</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -3361,7 +3364,7 @@
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="66" t="s">
         <v>214</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -3370,7 +3373,7 @@
       <c r="C10" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="65" t="s">
         <v>166</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -3420,7 +3423,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="66" t="s">
         <v>214</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -3429,7 +3432,7 @@
       <c r="C11" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="65" t="s">
         <v>166</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3479,7 +3482,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="66" t="s">
         <v>214</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -3488,7 +3491,7 @@
       <c r="C12" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="65" t="s">
         <v>166</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -3538,7 +3541,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="66" t="s">
         <v>214</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -3547,7 +3550,7 @@
       <c r="C13" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="65" t="s">
         <v>166</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -3597,7 +3600,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="66" t="s">
         <v>214</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -3606,7 +3609,7 @@
       <c r="C14" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="65" t="s">
         <v>166</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -3716,7 +3719,7 @@
     </row>
     <row r="16" spans="1:19" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>271</v>
@@ -4239,10 +4242,10 @@
       <c r="C25" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="65" t="s">
         <v>167</v>
       </c>
       <c r="F25" s="4">
@@ -4298,10 +4301,10 @@
       <c r="C26" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="65" t="s">
         <v>167</v>
       </c>
       <c r="F26" s="4">
@@ -4588,31 +4591,31 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="67">
+      <c r="A7" s="58">
         <v>2339</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="60" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E7" s="69">
+        <v>389</v>
+      </c>
+      <c r="E7" s="60">
         <v>2</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="60" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="H7" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="57" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4736,7 +4739,7 @@
       <c r="A12" s="1">
         <v>2380</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="63" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -4870,7 +4873,7 @@
         <v>89</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>90</v>
@@ -4889,13 +4892,13 @@
       <c r="D2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="71" t="s">
-        <v>398</v>
-      </c>
-      <c r="G2" s="70" t="s">
+      <c r="F2" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2" s="61" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4912,13 +4915,13 @@
       <c r="D3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="71" t="s">
-        <v>398</v>
-      </c>
-      <c r="G3" s="70" t="s">
+      <c r="F3" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="61" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4935,13 +4938,13 @@
       <c r="D4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="71" t="s">
-        <v>398</v>
-      </c>
-      <c r="G4" s="70" t="s">
+      <c r="F4" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="G4" s="61" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4961,10 +4964,10 @@
       <c r="E5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="71" t="s">
-        <v>398</v>
-      </c>
-      <c r="G5" s="70" t="s">
+      <c r="F5" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="G5" s="61" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4978,14 +4981,14 @@
       <c r="C6" s="17">
         <v>2</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="61" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>104</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>98</v>
@@ -5001,14 +5004,14 @@
       <c r="C7" s="17">
         <v>4</v>
       </c>
-      <c r="D7" s="70" t="s">
-        <v>393</v>
-      </c>
-      <c r="E7" s="71" t="s">
+      <c r="D7" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="71" t="s">
-        <v>398</v>
+      <c r="F7" s="62" t="s">
+        <v>396</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>96</v>
@@ -5024,16 +5027,16 @@
       <c r="C8" s="17">
         <v>2</v>
       </c>
-      <c r="D8" s="70" t="s">
-        <v>394</v>
+      <c r="D8" s="61" t="s">
+        <v>392</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="67" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5047,16 +5050,16 @@
       <c r="C9" s="17">
         <v>4</v>
       </c>
-      <c r="D9" s="70" t="s">
-        <v>395</v>
+      <c r="D9" s="61" t="s">
+        <v>393</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="72" t="s">
-        <v>400</v>
-      </c>
-      <c r="G9" s="58"/>
+      <c r="F9" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -5068,14 +5071,14 @@
       <c r="C10" s="17">
         <v>4</v>
       </c>
-      <c r="D10" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="E10" s="72" t="s">
+      <c r="D10" s="61" t="s">
+        <v>394</v>
+      </c>
+      <c r="E10" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="72" t="s">
-        <v>401</v>
+      <c r="F10" s="63" t="s">
+        <v>399</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>93</v>
@@ -5100,7 +5103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59D494A-D1F7-465B-ADAD-F4BA3DB95DA3}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -5111,70 +5114,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="74"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="59" t="s">
+      <c r="D4" s="71"/>
+      <c r="E4" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="60"/>
+      <c r="F4" s="74"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="13">
